--- a/Tecan/ENZYME_&_DNA_Parameters.xlsx
+++ b/Tecan/ENZYME_&_DNA_Parameters.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\PUPPETEER\GitHub\LiquidHandling\Tecan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14420" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14415" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Excel2LaTeX" sheetId="2" state="hidden" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Liquid Class Parameters" sheetId="3" r:id="rId2"/>
+    <sheet name="Reaction Volumes" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +31,7 @@
     <author>Swati Carr</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0">
+    <comment ref="A19" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="0">
+    <comment ref="A35" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -98,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A52" authorId="0">
+    <comment ref="A52" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -416,6 +421,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,15 +629,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -653,6 +650,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -717,6 +723,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1046,9 +1060,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1065,9 +1079,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>COUNT(Sheet1!#REF!)</f>
+        <f>COUNT('Reaction Volumes'!#REF!)</f>
         <v>0</v>
       </c>
       <c r="B2">
@@ -1094,915 +1108,805 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" thickBot="1">
-      <c r="A10" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="5" width="24" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" thickBot="1">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19" thickBot="1">
+    <row r="2" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="B3" s="9" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="B14" s="6" t="s">
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" thickBot="1">
+    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="19" thickBot="1">
+    <row r="19" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="19" thickBot="1">
-      <c r="B20" s="9" t="s">
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="B21" s="8" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="B22" s="6" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="B23" s="6" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="B25" s="6" t="s">
+      <c r="C24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26" s="6" t="s">
+      <c r="C25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30">
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="B29" s="6" t="s">
+      <c r="C28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" s="6" t="s">
+      <c r="C29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="B31" s="6" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="16" thickBot="1">
+    <row r="34" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="19" thickBot="1">
+    <row r="35" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" ht="19" thickBot="1">
-      <c r="B36" s="9" t="s">
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="B37" s="8" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="B38" s="6" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="B39" s="6" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="B40" s="6" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="7" t="s">
+      <c r="E40" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="B41" s="6" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="B42" s="6" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="B43" s="6" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="B44" s="6" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="B45" s="6" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E45" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="B46" s="6" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="30">
-      <c r="B47" s="6" t="s">
+      <c r="C46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="B48" s="6" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="B49" s="6" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E49" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="16" thickBot="1">
+    <row r="51" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="19" thickBot="1">
+    <row r="52" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>52</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="1:5" ht="19" thickBot="1">
-      <c r="B53" s="9" t="s">
+      <c r="D52" s="12"/>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="B54" s="8" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="B55" s="6" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="B56" s="6" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="B57" s="6" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="B58" s="6" t="s">
+      <c r="C57" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="B59" s="6" t="s">
+      <c r="C58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E59" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="30">
-      <c r="B60" s="6" t="s">
+      <c r="E59" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="B61" s="6" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="B62" s="6" t="s">
+      <c r="C61" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="B63" s="6" t="s">
+      <c r="C62" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="B64" s="6" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2022,4 +1926,114 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="18.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>